--- a/data/trans_orig/P78C9_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C9_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9726458E-3E39-4766-9A23-72BBE7375856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD500C02-FE1C-4152-8687-206D2E8E068E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{934EE714-8FBF-4B83-9985-1F87375EFA9B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7259A386-A660-47D2-A87F-37145CB8F950}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="40">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de las actividades extraescolares en 2023 (Tasa respuesta: 0,08%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,7 +77,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -98,58 +98,61 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -564,8 +567,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F437604-8DE5-4FF0-9293-4DC69E005611}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3C472A-0510-4836-B2A0-C7179F6F8E4B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -835,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1145</v>
+        <v>908</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>14</v>
@@ -850,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1145</v>
+        <v>908</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>14</v>
@@ -933,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>1145</v>
+        <v>908</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>16</v>
@@ -948,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>1145</v>
+        <v>908</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>16</v>
@@ -971,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
@@ -986,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1041</v>
+        <v>903</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>21</v>
@@ -1001,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2247</v>
+        <v>2090</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>22</v>
@@ -1037,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>943</v>
+        <v>881</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>24</v>
@@ -1052,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>943</v>
+        <v>881</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>25</v>
@@ -1073,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -1088,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>1984</v>
+        <v>1784</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>16</v>
@@ -1103,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>3190</v>
+        <v>2971</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>16</v>
@@ -1139,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>785</v>
+        <v>670</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>14</v>
@@ -1154,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>785</v>
+        <v>670</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>14</v>
@@ -1237,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>785</v>
+        <v>670</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>16</v>
@@ -1252,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>785</v>
+        <v>670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>16</v>
@@ -1540,55 +1543,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
-      </c>
-      <c r="N22" s="7">
-        <v>4178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1599,47 +1596,41 @@
       <c r="C23" s="7">
         <v>0</v>
       </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
-      </c>
-      <c r="I23" s="7">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
-      </c>
-      <c r="N23" s="7">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,63 +1639,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
-        <v>1206</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D25" s="7">
+        <v>1187</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2482</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3669</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>880</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>880</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1187</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="7">
         <v>6</v>
       </c>
-      <c r="I24" s="7">
-        <v>3915</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3362</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="7">
         <v>7</v>
       </c>
-      <c r="N24" s="7">
-        <v>5121</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>38</v>
+      <c r="N27" s="7">
+        <v>4549</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
